--- a/biology/Botanique/Eleocharis_ovata/Eleocharis_ovata.xlsx
+++ b/biology/Botanique/Eleocharis_ovata/Eleocharis_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleocharis ovata, le Scirpe à inflorescence ovoïde, est une espèce de plantes fibreuses de la famille des Cyperaceae. Elle est courante dans l'hémisphère Nord et notamment en Europe centrale.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante annuelle mesure entre 8 et 35 centimètres de haut. Fibreuse, elle n'a pas de feuilles, mais une touffe de tiges qui fleurissent pendant l'été (entre juin et septembre). Les tiges sont d'une couleur verte éclatante lors de la floraison.
-L’épi est constitué d'écales ovoïdes et mesure environ 5 millimètres de long. Chaque tige ne porte qu'un épi de forme oblongue, légèrement plus long que large[3],[4].
+L’épi est constitué d'écales ovoïdes et mesure environ 5 millimètres de long. Chaque tige ne porte qu'un épi de forme oblongue, légèrement plus long que large,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleocharis ovata est commune en Europe centrale et de l'Ouest, en Transbaïkalie (Dahurie), en Inde et en Amérique du Nord[5],[6]. Elle pousse particulièrement bien sur les rives desséchées des étangs, des mares ou des rivières. Sa présence est attestée dans plus des deux tiers de la France[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleocharis ovata est commune en Europe centrale et de l'Ouest, en Transbaïkalie (Dahurie), en Inde et en Amérique du Nord,. Elle pousse particulièrement bien sur les rives desséchées des étangs, des mares ou des rivières. Sa présence est attestée dans plus des deux tiers de la France.
 Eleocharis ovata préfère les climats lumineux et humides, et tolère mal le sel.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleocharis ovata n'est pas considérée comme menacée. Cependant, « la destruction, la coupe, la mutilation, l'arrachage, la cueillette ou l'enlèvement, le colportage, l'utilisation, la mise en vente, la vente ou l'achat de tout ou partie des spécimens sauvages » sont interdites dans plusieurs régions, comme en Midi-Pyrénées[3],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleocharis ovata n'est pas considérée comme menacée. Cependant, « la destruction, la coupe, la mutilation, l'arrachage, la cueillette ou l'enlèvement, le colportage, l'utilisation, la mise en vente, la vente ou l'achat de tout ou partie des spécimens sauvages » sont interdites dans plusieurs régions, comme en Midi-Pyrénées,.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 octobre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 octobre 2019) (Attention liste brute contenant possiblement des synonymes) :
 variété Eleocharis ovata var. aphanactis J.W. Moore
 variété Eleocharis ovata var. detonsa (A. Gray ex Patt.) Mohlenbr.
 variété Eleocharis ovata var. engelmannii (Steud.) Britton
